--- a/iselUssSyncV2/OutputWSL/20220426_1426_D50L474W90Q15U0.26H72G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1426_D50L474W90Q15U0.26H72G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>72.706956521739116</v>
+        <v>72.707887288760105</v>
       </c>
       <c r="F2" s="0">
-        <v>71.423241106719402</v>
+        <v>71.424171873740349</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>73.61496031746033</v>
+        <v>73.617235525733832</v>
       </c>
       <c r="F3" s="0">
-        <v>73.449047619047604</v>
+        <v>73.451322827321107</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>72.859163346613528</v>
+        <v>72.861914280253302</v>
       </c>
       <c r="F4" s="0">
-        <v>75.117490039840604</v>
+        <v>75.120240973480378</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>72.128207171314756</v>
+        <v>72.131013261518703</v>
       </c>
       <c r="F5" s="0">
-        <v>75.589760956175297</v>
+        <v>75.59256704637923</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>70.863027888446254</v>
+        <v>70.86588224064387</v>
       </c>
       <c r="F6" s="0">
-        <v>76.330358565737072</v>
+        <v>76.333212917934745</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>68.460198412698489</v>
+        <v>68.463094132319199</v>
       </c>
       <c r="F7" s="0">
-        <v>76.746587301587297</v>
+        <v>76.74948302120805</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>63.532103174603158</v>
+        <v>63.535033367076608</v>
       </c>
       <c r="F8" s="0">
-        <v>73.688531746031757</v>
+        <v>73.691461938505185</v>
       </c>
     </row>
     <row r="9">
@@ -262,7 +262,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>61.165396825396833</v>
+        <v>61.168338876531543</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -280,10 +280,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>57.962698412698401</v>
+        <v>57.96565121936316</v>
       </c>
       <c r="F10" s="0">
-        <v>13.716626984126984</v>
+        <v>13.719579790791736</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +300,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>54.246944444444466</v>
+        <v>54.249906903507927</v>
       </c>
       <c r="F11" s="0">
-        <v>20.773809523809526</v>
+        <v>20.776771982873015</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +320,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>51.92765873015874</v>
+        <v>51.930625601747359</v>
       </c>
       <c r="F12" s="0">
-        <v>24.444960317460314</v>
+        <v>24.447927189048936</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +340,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>50.374047619047616</v>
+        <v>50.377018627378547</v>
       </c>
       <c r="F13" s="0">
-        <v>27.977142857142855</v>
+        <v>27.980113865473804</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +360,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>48.635976095617536</v>
+        <v>48.63895096490797</v>
       </c>
       <c r="F14" s="0">
-        <v>31.058286852589646</v>
+        <v>31.061261721880072</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +380,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>46.970956175298802</v>
+        <v>46.9739346297659</v>
       </c>
       <c r="F15" s="0">
-        <v>32.446533864541834</v>
+        <v>32.449512319008939</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +400,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>44.189043824701209</v>
+        <v>44.19202862217319</v>
       </c>
       <c r="F16" s="0">
-        <v>35.399760956175307</v>
+        <v>35.402745753647295</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>40.061593625497999</v>
+        <v>40.064583662843596</v>
       </c>
       <c r="F17" s="0">
-        <v>37.185179282868532</v>
+        <v>37.188169320214108</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +440,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>39.052868525896415</v>
+        <v>39.055862699984324</v>
       </c>
       <c r="F18" s="0">
-        <v>38.194302788844624</v>
+        <v>38.197296962932526</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +460,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>35.158525896414332</v>
+        <v>35.161525034593041</v>
       </c>
       <c r="F19" s="0">
-        <v>39.54649402390438</v>
+        <v>39.549493162083074</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>32.028645418326704</v>
+        <v>32.031644556505384</v>
       </c>
       <c r="F20" s="0">
-        <v>39.620637450199204</v>
+        <v>39.623636588377884</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +500,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>32.638645418326689</v>
+        <v>32.641637661934851</v>
       </c>
       <c r="F21" s="0">
-        <v>39.387888446215143</v>
+        <v>39.390880689823298</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +520,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>34.782111553784851</v>
+        <v>34.785090008251977</v>
       </c>
       <c r="F22" s="0">
-        <v>39.148844621513938</v>
+        <v>39.151823075981049</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>33.917063492063498</v>
+        <v>33.920021262819027</v>
       </c>
       <c r="F23" s="0">
-        <v>39.426071428571433</v>
+        <v>39.429029199326962</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +560,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>31.953253968253957</v>
+        <v>31.956149687874781</v>
       </c>
       <c r="F24" s="0">
-        <v>39.579404761904755</v>
+        <v>39.582300481525564</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +580,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>43.951309523809506</v>
+        <v>43.954115614013496</v>
       </c>
       <c r="F25" s="0">
-        <v>39.67126984126984</v>
+        <v>39.674075931473809</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +600,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>45.471269841269837</v>
+        <v>45.473958723774864</v>
       </c>
       <c r="F26" s="0">
-        <v>39.724246031746034</v>
+        <v>39.726934914251061</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>41.005833333333328</v>
+        <v>41.008377429857333</v>
       </c>
       <c r="F27" s="0">
-        <v>39.503293650793658</v>
+        <v>39.505837747317642</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +640,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>36.163984063745026</v>
+        <v>36.166355796005867</v>
       </c>
       <c r="F28" s="0">
-        <v>38.905537848605576</v>
+        <v>38.907909580866431</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +660,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>37.257848605577685</v>
+        <v>37.260020395293289</v>
       </c>
       <c r="F29" s="0">
-        <v>38.926613545816728</v>
+        <v>38.928785335532332</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +680,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>40.968525896414342</v>
+        <v>40.970215066193134</v>
       </c>
       <c r="F30" s="0">
-        <v>38.325577689243033</v>
+        <v>38.327266859021826</v>
       </c>
     </row>
   </sheetData>
